--- a/excel marksheet.xlsx
+++ b/excel marksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SAAD HDSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d7e6075aa402393/Desktop/AI2025 05 B1/AI-05-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FEA318-6E1A-4C5F-BF0C-8460D3EA4167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{06FEA318-6E1A-4C5F-BF0C-8460D3EA4167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FD4525-CD0C-487B-A472-8B14BDFA7B48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{3F41C57F-FA07-4DA4-BCCE-AEC8460A28BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F41C57F-FA07-4DA4-BCCE-AEC8460A28BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>marker</t>
+  </si>
+  <si>
+    <t>huzaif</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,14 +255,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -298,28 +319,17 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -330,16 +340,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9797"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -674,21 +674,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581958E1-BA1D-4B25-9334-31A423B6BB0C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C10:T19"/>
+  <dimension ref="C10:T21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" customWidth="1"/>
+    <col min="17" max="17" width="9.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -782,12 +784,12 @@
         <v>C</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f>IF(L11&gt;40,"pass","fail")</f>
-        <v>pass</v>
+        <f>IF(COUNTA(E11:J11)&lt;6,"Incomplete result",IF(MIN(E11:J11)&lt;40,"Fail","pass"))</f>
+        <v>Fail</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f>IF(MIN(E11:J11)&gt;40,"pass","fail")</f>
-        <v>fail</v>
+        <f>IF(COUNTA(E11:J11)&lt;6,"Incomplete result",IF(MIN(E11:J11)&lt;40,"Fail","Pass"))</f>
+        <v>Fail</v>
       </c>
       <c r="P11" s="2">
         <f>MAX(E11:J11)</f>
@@ -810,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C12" s="2">
         <v>2</v>
       </c>
@@ -836,11 +838,11 @@
         <v>85</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ref="K12:K19" si="0">SUM(E12:J12)</f>
+        <f t="shared" ref="K12:K15" si="0">SUM(E12:J12)</f>
         <v>369</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" ref="L12:L19" si="1">K12*100/500</f>
+        <f t="shared" ref="L12:L15" si="1">K12*100/500</f>
         <v>73.8</v>
       </c>
       <c r="M12" s="2" t="str" cm="1">
@@ -848,12 +850,12 @@
         <v>A</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" ref="N12:N15" si="2">IF(L12&gt;40,"pass","fail")</f>
+        <f t="shared" ref="N12:N19" si="2">IF(COUNTA(E12:J12)&lt;6,"Incomplete result",IF(MIN(E12:J12)&lt;40,"Fail","pass"))</f>
         <v>pass</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" ref="O12:O19" si="3">IF(MIN(E12:J12)&gt;40,"pass","fail")</f>
-        <v>pass</v>
+        <f t="shared" ref="O12:O20" si="3">IF(COUNTA(E12:J12)&lt;6,"Incomplete result",IF(MIN(E12:J12)&lt;40,"Fail","Pass"))</f>
+        <v>Pass</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:P19" si="4">MAX(E12:J12)</f>
@@ -876,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C13" s="2">
         <v>3</v>
       </c>
@@ -919,7 +921,7 @@
       </c>
       <c r="O13" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>pass</v>
+        <v>Pass</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="4"/>
@@ -942,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C14" s="2">
         <v>4</v>
       </c>
@@ -981,11 +983,11 @@
       </c>
       <c r="N14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>pass</v>
+        <v>Fail</v>
       </c>
       <c r="O14" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>fail</v>
+        <v>Fail</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="4"/>
@@ -1008,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C15" s="2">
         <v>5</v>
       </c>
@@ -1047,11 +1049,11 @@
       </c>
       <c r="N15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>Fail</v>
       </c>
       <c r="O15" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>fail</v>
+        <v>Fail</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="4"/>
@@ -1074,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C16" s="2">
         <v>6</v>
       </c>
@@ -1090,8 +1092,14 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Incomplete result</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Incomplete result</v>
+      </c>
       <c r="P16" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1110,7 +1118,7 @@
       </c>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C17" s="2">
         <v>7</v>
       </c>
@@ -1148,12 +1156,12 @@
         <v>B</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" ref="N17:N19" si="10">IF(L17&gt;40,"pass","fail")</f>
-        <v>pass</v>
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" ref="O17:O19" si="11">IF(MIN(E17:J17)&gt;40,"pass","fail")</f>
-        <v>fail</v>
+        <f t="shared" si="3"/>
+        <v>Fail</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="4"/>
@@ -1176,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C18" s="2">
         <v>8</v>
       </c>
@@ -1214,12 +1222,12 @@
         <v>A</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pass</v>
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>fail</v>
+        <f t="shared" si="3"/>
+        <v>Fail</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="4"/>
@@ -1242,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C19" s="2">
         <v>9</v>
       </c>
@@ -1280,12 +1288,12 @@
         <v>A+</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>pass</v>
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>fail</v>
+        <f t="shared" si="3"/>
+        <v>Fail</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="4"/>
@@ -1308,19 +1316,85 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <f>SUM(E20:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <f>K20*100/500</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="str">
+        <f>IF(COUNTA(E20:J20)&lt;6,"Incomplete result",IF(MIN(E20:J20)&lt;40,"Fail","pass"))</f>
+        <v>Incomplete result</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Incomplete result</v>
+      </c>
+      <c r="P20" s="2">
+        <f>MAX(E20:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>MIN(E20:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <f>COUNT(E20:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <f>COUNTBLANK(E20:J20)</f>
+        <v>6</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" ref="T20" si="10">RANK(K20,K20:K28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E11:J19">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
+      <formula>75</formula>
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>AND(ISNUMBER(E11),E11&gt;=0,E11&lt;=40)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L11:L19">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
       <formula>81</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:J19">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>AND(ISNUMBER(E11),E11&gt;=0,E11&lt;=40)</formula>
+  <conditionalFormatting sqref="E20:J20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
-      <formula>75</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>81</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1336,19 +1410,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D10B517-5591-4CFC-8C9D-AFD95CBF5C13}">
-  <dimension ref="C6:N20"/>
+  <dimension ref="C6:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1358,26 +1432,26 @@
       <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1409,7 +1483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1427,7 +1501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1445,7 +1519,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1456,7 +1530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1467,7 +1541,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1478,7 +1552,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
@@ -1489,7 +1563,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1500,7 +1574,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1511,7 +1585,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1522,7 +1596,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1533,7 +1607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1544,7 +1618,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1555,34 +1629,29 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="8" priority="6">
-      <formula>LEN(TRIM(G7))=0</formula>
-    </cfRule>
     <cfRule type="notContainsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(G7))&gt;0</formula>
     </cfRule>
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
+      <formula>LEN(TRIM(J7))&gt;0</formula>
+    </cfRule>
     <cfRule type="containsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(J7))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(J7))&gt;0</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M9">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(M7))&gt;0</formula>
+    </cfRule>
     <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(M7))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(M7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/excel marksheet.xlsx
+++ b/excel marksheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d7e6075aa402393/Desktop/AI2025 05 B1/AI-05-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{06FEA318-6E1A-4C5F-BF0C-8460D3EA4167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FD4525-CD0C-487B-A472-8B14BDFA7B48}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{06FEA318-6E1A-4C5F-BF0C-8460D3EA4167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3173CB77-18F0-4C36-B589-F436E44395D1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F41C57F-FA07-4DA4-BCCE-AEC8460A28BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3F41C57F-FA07-4DA4-BCCE-AEC8460A28BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -186,6 +187,9 @@
   </si>
   <si>
     <t>huzaif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello </t>
   </si>
 </sst>
 </file>
@@ -676,7 +680,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C10:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -1667,4 +1671,29 @@
     <ignoredError sqref="H7" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C453ECC-0546-4268-BF67-675A904E8B5A}">
+  <dimension ref="H15:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="15" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel marksheet.xlsx
+++ b/excel marksheet.xlsx
@@ -1,23 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d7e6075aa402393/Desktop/AI2025 05 B1/AI-05-2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\saad\AI-05-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{06FEA318-6E1A-4C5F-BF0C-8460D3EA4167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3173CB77-18F0-4C36-B589-F436E44395D1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34659335-CB7D-4F7C-B292-866D270AE543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3F41C57F-FA07-4DA4-BCCE-AEC8460A28BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="12504" windowHeight="8712" firstSheet="2" activeTab="4" xr2:uid="{3F41C57F-FA07-4DA4-BCCE-AEC8460A28BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="Scenario Summary 3" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="Graphic">Sheet5!$F$7</definedName>
+    <definedName name="laptop">Sheet5!$F$5</definedName>
+    <definedName name="LCD">Sheet5!$F$10</definedName>
+    <definedName name="Mother">Sheet5!$F$9</definedName>
+    <definedName name="Mouse">Sheet5!$F$8</definedName>
+    <definedName name="SSD">Sheet5!$F$6</definedName>
+    <definedName name="TOTAL">Sheet5!$F$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -189,14 +204,185 @@
     <t>huzaif</t>
   </si>
   <si>
-    <t xml:space="preserve">hello </t>
+    <t>Sum of Revenue</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Multan</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>Pens</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>caps</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>charger</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>coffe</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Remaining stock</t>
+  </si>
+  <si>
+    <t>Total sell</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>urdu</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Graphic Card</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother Board </t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Created by STUDENT on 6/18/2025</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>Graphic</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +390,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +442,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -242,11 +484,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,30 +540,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -339,6 +637,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -378,6 +686,251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="STUDENT" refreshedDate="45821.954553240743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{4CB81B1D-4DA0-456A-9935-9DBCF3067763}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Apple"/>
+        <s v="mango"/>
+        <s v="strawberry"/>
+        <s v="banana"/>
+        <s v="watermelon"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="800"/>
+    </cacheField>
+    <cacheField name="Total sell" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="400" maxValue="1000"/>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100000" maxValue="800000"/>
+    </cacheField>
+    <cacheField name="City " numFmtId="0">
+      <sharedItems count="3">
+        <s v="Karachi"/>
+        <s v="Multan"/>
+        <s v="hyderabad"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="4">
+        <s v="January"/>
+        <s v="April"/>
+        <s v="March"/>
+        <s v="May"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <x v="0"/>
+    <n v="250"/>
+    <n v="500"/>
+    <n v="125000"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="350"/>
+    <n v="800"/>
+    <n v="280000"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="500"/>
+    <n v="400"/>
+    <n v="200000"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="200"/>
+    <n v="600"/>
+    <n v="120000"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="800"/>
+    <n v="1000"/>
+    <n v="800000"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="500"/>
+    <n v="850"/>
+    <n v="425000"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="200"/>
+    <n v="500"/>
+    <n v="100000"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="350"/>
+    <n v="650"/>
+    <n v="227500"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30CF0C27-35DF-4AF6-9E3F-D22EB4BAA376}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:F17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Revenue" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9EF0C869-992B-4F41-8BD5-0C51EA16981E}" name="Table1" displayName="Table1" ref="B4:F19" totalsRowShown="0">
+  <autoFilter ref="B4:F19" xr:uid="{9EF0C869-992B-4F41-8BD5-0C51EA16981E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6EA31030-1678-433A-81C1-36F668C0287E}" name="Name "/>
+    <tableColumn id="2" xr3:uid="{DE0ADD04-BDA1-492B-A418-CD2D01CF0DD5}" name="Price"/>
+    <tableColumn id="12" xr3:uid="{A2CDE8DE-FBE8-412E-B0D6-A52806DF5C2C}" name="Remaining stock"/>
+    <tableColumn id="3" xr3:uid="{5CE487FB-8325-49CC-85D2-395AF892C5B9}" name="Total sell"/>
+    <tableColumn id="4" xr3:uid="{78FA8830-E3C8-4C98-B878-2A2D229DE5C7}" name="Revenue" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,21 +1233,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C10:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="14" max="14" width="19.81640625" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" customWidth="1"/>
-    <col min="17" max="17" width="9.7265625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -816,7 +1369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>2</v>
       </c>
@@ -882,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>3</v>
       </c>
@@ -948,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>4</v>
       </c>
@@ -1014,7 +1567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>5</v>
       </c>
@@ -1080,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>6</v>
       </c>
@@ -1122,7 +1675,7 @@
       </c>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" s="2">
         <v>7</v>
       </c>
@@ -1188,7 +1741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <v>8</v>
       </c>
@@ -1254,7 +1807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>9</v>
       </c>
@@ -1320,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <v>10</v>
       </c>
@@ -1371,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
     </row>
   </sheetData>
@@ -1384,20 +1937,14 @@
       <formula>AND(ISNUMBER(E11),E11&gt;=0,E11&lt;=40)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L19">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
-      <formula>81</formula>
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E20:J20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+  <conditionalFormatting sqref="L11:L20">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
       <formula>81</formula>
       <formula>100</formula>
     </cfRule>
@@ -1420,13 +1967,13 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +2002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +2034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1505,7 +2052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1523,7 +2070,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1534,7 +2081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1545,7 +2092,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +2103,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +2114,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1578,7 +2125,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +2136,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1600,7 +2147,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1611,7 +2158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1622,7 +2169,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1635,26 +2182,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G7">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="5">
       <formula>LEN(TRIM(G7))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(J7))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(J7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M9">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(M7))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(M7))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1675,25 +2222,855 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C453ECC-0546-4268-BF67-675A904E8B5A}">
-  <dimension ref="H15:H16"/>
+  <dimension ref="B4:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="15" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H15" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>45000</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>8000</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>6000</v>
+      </c>
+      <c r="D7">
+        <v>4500</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+      <c r="F8">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <v>1500</v>
+      </c>
+      <c r="E9">
+        <v>800</v>
+      </c>
+      <c r="F9">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>800</v>
+      </c>
+      <c r="D11">
+        <v>8000</v>
+      </c>
+      <c r="E11">
+        <v>900</v>
+      </c>
+      <c r="F11">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>450</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>800</v>
+      </c>
+      <c r="F12">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>50000</v>
+      </c>
+      <c r="D14">
+        <v>1020</v>
+      </c>
+      <c r="E14">
+        <v>70</v>
+      </c>
+      <c r="F14">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>45000</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>400</v>
+      </c>
+      <c r="F17">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18">
+        <v>1500</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>2000</v>
+      </c>
+      <c r="D19">
+        <v>800</v>
+      </c>
+      <c r="E19">
+        <v>800</v>
+      </c>
+      <c r="F19">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total sell]]</f>
+        <v>1600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FF8D11-E2F2-487C-8CFE-5EBA9A18B28E}">
+  <dimension ref="B3:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H16" t="s">
-        <v>14</v>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>245000</v>
+      </c>
+      <c r="E5">
+        <v>227500</v>
+      </c>
+      <c r="F5">
+        <v>472500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>125000</v>
+      </c>
+      <c r="F6">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>120000</v>
+      </c>
+      <c r="F7">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>227500</v>
+      </c>
+      <c r="F8">
+        <v>227500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>200000</v>
+      </c>
+      <c r="E9">
+        <v>800000</v>
+      </c>
+      <c r="F9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>200000</v>
+      </c>
+      <c r="F10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>800000</v>
+      </c>
+      <c r="F11">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>425000</v>
+      </c>
+      <c r="E12">
+        <v>280000</v>
+      </c>
+      <c r="F12">
+        <v>705000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>280000</v>
+      </c>
+      <c r="F13">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>425000</v>
+      </c>
+      <c r="F14">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>100000</v>
+      </c>
+      <c r="F15">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>100000</v>
+      </c>
+      <c r="F16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>625000</v>
+      </c>
+      <c r="D17">
+        <v>345000</v>
+      </c>
+      <c r="E17">
+        <v>1307500</v>
+      </c>
+      <c r="F17">
+        <v>2277500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4686DF00-3024-4DC9-AD22-789554966B0E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="16">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="20">
+        <v>11000</v>
+      </c>
+      <c r="F6" s="20">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="16">
+        <v>6000</v>
+      </c>
+      <c r="E7" s="20">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="16">
+        <v>59000</v>
+      </c>
+      <c r="E8" s="20">
+        <v>59000</v>
+      </c>
+      <c r="F8" s="20">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="20">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="16">
+        <v>460000</v>
+      </c>
+      <c r="E10" s="20">
+        <v>460000</v>
+      </c>
+      <c r="F10" s="20">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="17">
+        <v>548000</v>
+      </c>
+      <c r="E13" s="17">
+        <v>548000</v>
+      </c>
+      <c r="F13" s="17">
+        <v>201100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DE1E82-9457-4465-8024-418EB73D8B77}">
+  <dimension ref="B4:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>74</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="3">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="3">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100.99999999999994</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="3">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SUM(C5:C9)</f>
+        <v>349.99999999999994</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3">
+        <f>SUM(F5:F10)</f>
+        <v>548000</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="0" show="0" sqref="F11">
+    <scenario name="Maximum" locked="1" count="6" user="STUDENT" comment="Created by STUDENT on 6/18/2025">
+      <inputCells r="F5" val="11000"/>
+      <inputCells r="F6" val="6000"/>
+      <inputCells r="F7" val="59000"/>
+      <inputCells r="F8" val="2000"/>
+      <inputCells r="F9" val="460000"/>
+      <inputCells r="F10" val="10000"/>
+    </scenario>
+    <scenario name="Minimum" locked="1" count="6" user="STUDENT" comment="Created by STUDENT on 6/18/2025">
+      <inputCells r="F5" val="90000"/>
+      <inputCells r="F6" val="4000"/>
+      <inputCells r="F7" val="56000"/>
+      <inputCells r="F8" val="1100"/>
+      <inputCells r="F9" val="40000"/>
+      <inputCells r="F10" val="10000"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>